--- a/media/inventory/create-multiple-device-example.xlsx
+++ b/media/inventory/create-multiple-device-example.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duanbm/Code/project/python/python-django/icms/media/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61256C6-E408-F34B-9539-26A75DA1341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B49DB0-901E-3949-998B-1E5C471B863C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{E46D5D6E-563D-2147-87DB-85A3C971FAF5}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" activeTab="1" xr2:uid="{E46D5D6E-563D-2147-87DB-85A3C971FAF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Device basic info" sheetId="1" r:id="rId1"/>
-    <sheet name="Device management" sheetId="2" r:id="rId2"/>
-    <sheet name="Device topology" sheetId="3" r:id="rId3"/>
+    <sheet name="Device_basic_info" sheetId="1" r:id="rId1"/>
+    <sheet name="Device_management" sheetId="2" r:id="rId2"/>
+    <sheet name="Device_topology" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>DeviceName</t>
   </si>
@@ -70,12 +70,6 @@
     <t>DC</t>
   </si>
   <si>
-    <t>Checkpoint3800</t>
-  </si>
-  <si>
-    <t>Firewall</t>
-  </si>
-  <si>
     <t>S1-INTERNET-FW02</t>
   </si>
   <si>
@@ -112,16 +106,37 @@
     <t>AE02</t>
   </si>
   <si>
-    <t>CheckPoint</t>
-  </si>
-  <si>
-    <t>DCR</t>
-  </si>
-  <si>
-    <t>S1-INTERNET-FW03</t>
-  </si>
-  <si>
-    <t>10.23.35.12</t>
+    <t>S1-WAN-RT-01</t>
+  </si>
+  <si>
+    <t>10.23.35.100</t>
+  </si>
+  <si>
+    <t>ISR1000</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>S1-WAN-RT-02</t>
+  </si>
+  <si>
+    <t>10.23.35.101</t>
+  </si>
+  <si>
+    <t>S1-EXTRANET-RT-01</t>
+  </si>
+  <si>
+    <t>ISR4500</t>
+  </si>
+  <si>
+    <t>StartMA</t>
+  </si>
+  <si>
+    <t>StartLicense</t>
   </si>
 </sst>
 </file>
@@ -476,13 +491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013B3D15-5836-A743-A39E-2D050E54B83E}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
@@ -515,71 +531,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -589,24 +605,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E36A16B-A2D9-A04C-8B56-0BBAFCD5A241}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="170" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,25 +630,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -643,13 +665,13 @@
         <v>123456</v>
       </c>
       <c r="D2" s="1">
+        <v>44927</v>
+      </c>
+      <c r="E2" s="1">
         <v>45292</v>
       </c>
-      <c r="E2" s="1">
-        <v>45658</v>
-      </c>
       <c r="F2" s="1">
-        <v>45658</v>
+        <v>45292</v>
       </c>
       <c r="G2" s="1">
         <v>45658</v>
@@ -657,30 +679,71 @@
       <c r="H2" s="1">
         <v>45658</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>45658</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>123455</v>
       </c>
       <c r="D3" s="1">
+        <v>44927</v>
+      </c>
+      <c r="E3" s="1">
         <v>45292</v>
       </c>
-      <c r="E3" s="1">
-        <v>45658</v>
-      </c>
       <c r="F3" s="1">
-        <v>45658</v>
+        <v>45292</v>
       </c>
       <c r="G3" s="1">
         <v>45658</v>
       </c>
       <c r="H3" s="1">
+        <v>45658</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45658</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44927</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45292</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45292</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45658</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45658</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45658</v>
+      </c>
+      <c r="J4" s="1">
         <v>45658</v>
       </c>
     </row>
@@ -694,7 +757,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -725,18 +788,21 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>12</v>

--- a/media/inventory/create-multiple-device-example.xlsx
+++ b/media/inventory/create-multiple-device-example.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duanbm/Code/project/python/python-django/icms/media/inventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanbm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B49DB0-901E-3949-998B-1E5C471B863C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" activeTab="1" xr2:uid="{E46D5D6E-563D-2147-87DB-85A3C971FAF5}"/>
+    <workbookView xWindow="375" yWindow="495" windowWidth="28035" windowHeight="16425"/>
   </bookViews>
   <sheets>
     <sheet name="Device_basic_info" sheetId="1" r:id="rId1"/>
     <sheet name="Device_management" sheetId="2" r:id="rId2"/>
     <sheet name="Device_topology" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device_basic_info!$A$1:$I$2</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>DeviceName</t>
   </si>
@@ -58,98 +60,109 @@
     <t>DeviceVendor</t>
   </si>
   <si>
+    <t>DeviceOS</t>
+  </si>
+  <si>
     <t>DeviceDescription</t>
   </si>
   <si>
-    <t>S1-INTERNET-FW01</t>
-  </si>
-  <si>
-    <t>10.23.35.10</t>
+    <t>DRHL-Core-FW-01</t>
+  </si>
+  <si>
+    <t>10.36.11.226</t>
+  </si>
+  <si>
+    <t>SRX1400</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>Juniper</t>
+  </si>
+  <si>
+    <t>JunOS</t>
+  </si>
+  <si>
+    <t>SerialNumber</t>
+  </si>
+  <si>
+    <t>StartMA</t>
+  </si>
+  <si>
+    <t>EndMA</t>
+  </si>
+  <si>
+    <t>StartLicense</t>
+  </si>
+  <si>
+    <t>EndLicense</t>
+  </si>
+  <si>
+    <t>EndSwSupport</t>
+  </si>
+  <si>
+    <t>EndHwSupport</t>
+  </si>
+  <si>
+    <t>StartUsed</t>
+  </si>
+  <si>
+    <t>BH2713AJ0038</t>
+  </si>
+  <si>
+    <t>RackName</t>
+  </si>
+  <si>
+    <t>RackUnit</t>
+  </si>
+  <si>
+    <t>H12A</t>
+  </si>
+  <si>
+    <t>DeviceStack</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>DC</t>
   </si>
   <si>
-    <t>S1-INTERNET-FW02</t>
-  </si>
-  <si>
-    <t>10.23.35.11</t>
-  </si>
-  <si>
-    <t>RackName</t>
-  </si>
-  <si>
-    <t>RackUnit</t>
-  </si>
-  <si>
-    <t>SerialNumber</t>
-  </si>
-  <si>
-    <t>EndMA</t>
-  </si>
-  <si>
-    <t>EndLicense</t>
-  </si>
-  <si>
-    <t>EndSwSupport</t>
-  </si>
-  <si>
-    <t>EndHwSupport</t>
-  </si>
-  <si>
-    <t>StartUsed</t>
-  </si>
-  <si>
-    <t>AE01</t>
-  </si>
-  <si>
-    <t>AE02</t>
-  </si>
-  <si>
-    <t>S1-WAN-RT-01</t>
-  </si>
-  <si>
-    <t>10.23.35.100</t>
-  </si>
-  <si>
-    <t>ISR1000</t>
-  </si>
-  <si>
-    <t>Router</t>
-  </si>
-  <si>
-    <t>Cisco</t>
-  </si>
-  <si>
-    <t>S1-WAN-RT-02</t>
-  </si>
-  <si>
-    <t>10.23.35.101</t>
-  </si>
-  <si>
-    <t>S1-EXTRANET-RT-01</t>
-  </si>
-  <si>
-    <t>ISR4500</t>
-  </si>
-  <si>
-    <t>StartMA</t>
-  </si>
-  <si>
-    <t>StartLicense</t>
+    <t>Thiết bị ở DC sử dụng cho…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,13 +181,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,327 +546,567 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013B3D15-5836-A743-A39E-2D050E54B83E}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="171" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="15.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="24.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:XFD1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2">
+        <v>44938</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44938</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44938</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44938</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44938</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44938</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44938</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:B2"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
+      <c r="D2" s="11">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E36A16B-A2D9-A04C-8B56-0BBAFCD5A241}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44927</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45658</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45658</v>
-      </c>
-      <c r="I2" s="1">
-        <v>45658</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>123455</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44927</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45292</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45292</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45658</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45658</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45658</v>
-      </c>
-      <c r="J3" s="1">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44927</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45292</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45292</v>
-      </c>
-      <c r="G4" s="1">
-        <v>45658</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45658</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45658</v>
-      </c>
-      <c r="J4" s="1">
-        <v>45658</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF8A00-BA31-E642-B997-90929693DEA7}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f12a46c9-6ba8-42fe-99db-579dff86ab60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="34c51e20-6b4f-4893-8b98-3526fd76e7bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100424752B7244BCE4FA8C092DD0B561893" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b4ca8864b1f3b37ba98d6070f449308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="34c51e20-6b4f-4893-8b98-3526fd76e7bd" xmlns:ns3="cfebefa8-bea0-4972-85ec-a7966dbd9d5e" xmlns:ns4="f12a46c9-6ba8-42fe-99db-579dff86ab60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03b6ae70a91fb00e64b6d94af6e02765" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="34c51e20-6b4f-4893-8b98-3526fd76e7bd"/>
+    <xsd:import namespace="cfebefa8-bea0-4972-85ec-a7966dbd9d5e"/>
+    <xsd:import namespace="f12a46c9-6ba8-42fe-99db-579dff86ab60"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="34c51e20-6b4f-4893-8b98-3526fd76e7bd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="10" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7f60e6d0-d6f5-4bbe-9ecb-937bceca1417}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="34c51e20-6b4f-4893-8b98-3526fd76e7bd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cfebefa8-bea0-4972-85ec-a7966dbd9d5e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharingHintHash" ma:index="9" nillable="true" ma:displayName="Sharing Hint Hash" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f12a46c9-6ba8-42fe-99db-579dff86ab60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4bc18ca0-9ce7-4b3d-b510-552b6ed26310" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="25" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="26" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A7A584-454E-447E-8832-309C6BCDA94F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A801AF-35E7-43C5-8840-54249DF76BAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cfebefa8-bea0-4972-85ec-a7966dbd9d5e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f12a46c9-6ba8-42fe-99db-579dff86ab60"/>
+    <ds:schemaRef ds:uri="34c51e20-6b4f-4893-8b98-3526fd76e7bd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D5FEA21-1BCC-461A-9532-04509AF8D78B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="34c51e20-6b4f-4893-8b98-3526fd76e7bd"/>
+    <ds:schemaRef ds:uri="cfebefa8-bea0-4972-85ec-a7966dbd9d5e"/>
+    <ds:schemaRef ds:uri="f12a46c9-6ba8-42fe-99db-579dff86ab60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/media/inventory/create-multiple-device-example.xlsx
+++ b/media/inventory/create-multiple-device-example.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duanbm/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E900564-E38C-9647-ACAE-268858D48201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Device"/>
-    <sheet r:id="rId2" sheetId="2" name="Device_management"/>
-    <sheet r:id="rId3" sheetId="3" name="Device_topology"/>
+    <sheet name="Device" sheetId="1" r:id="rId1"/>
+    <sheet name="Device_management" sheetId="2" r:id="rId2"/>
+    <sheet name="Device_topology" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Device!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Device!$A$1:$K$2</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>DeviceName</t>
   </si>
@@ -72,9 +78,6 @@
     <t>BH2713AJ0038</t>
   </si>
   <si>
-    <t>DeviceLocation</t>
-  </si>
-  <si>
     <t>DeviceType</t>
   </si>
   <si>
@@ -112,14 +115,29 @@
   </si>
   <si>
     <t>Thiết bị ở DC sử dụng cho…</t>
+  </si>
+  <si>
+    <t>DeviceBranch</t>
+  </si>
+  <si>
+    <t>DeviceProvince</t>
+  </si>
+  <si>
+    <t>DeviceTag</t>
+  </si>
+  <si>
+    <t>duplicated</t>
+  </si>
+  <si>
+    <t>10.36.11.245</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -190,50 +208,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -244,10 +262,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -285,71 +303,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,7 +395,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -400,11 +418,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -413,13 +431,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -429,7 +447,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -438,7 +456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -447,7 +465,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -455,10 +473,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -523,83 +541,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -616,21 +649,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="31.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,57 +672,57 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>44938</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>44938</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>44938</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>44938</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>44938</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>44938</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>44938</v>
       </c>
     </row>
@@ -700,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -708,15 +740,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>

--- a/media/inventory/create-multiple-device-example.xlsx
+++ b/media/inventory/create-multiple-device-example.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duanbm/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanbm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E900564-E38C-9647-ACAE-268858D48201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
     <sheet name="Device_management" sheetId="2" r:id="rId2"/>
-    <sheet name="Device_topology" sheetId="3" r:id="rId3"/>
+    <sheet name="Device_rack_layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Device!$A$1:$K$2</definedName>
@@ -135,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -541,31 +540,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -600,7 +599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -641,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -649,20 +648,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -732,23 +731,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
